--- a/TestData/nopCommerce.xlsx
+++ b/TestData/nopCommerce.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="login1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t>Email</t>
   </si>
@@ -459,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,12 +538,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
